--- a/salary list.xlsx
+++ b/salary list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\Desktop\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3640F7-C64C-491C-A683-1D3736D81B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596F05C-4763-4596-8BC1-948A15FD3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,47 +337,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/salary list.xlsx
+++ b/salary list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\Desktop\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596F05C-4763-4596-8BC1-948A15FD3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E4046D-9910-4D4F-A7F9-B682A766B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,6 +418,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
